--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3DE82B-185A-4091-A654-297DB87D8BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7DAC34-5F5F-47CE-B04B-2682DAF2C273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="3525" windowWidth="15390" windowHeight="7995" xr2:uid="{2C92F227-6414-46AB-ABCC-C8B522394796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C92F227-6414-46AB-ABCC-C8B522394796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>supplier_nama</t>
   </si>
@@ -36,22 +36,13 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>Dhani</t>
-  </si>
-  <si>
-    <t>JL.merbabu</t>
-  </si>
-  <si>
-    <t>Danan</t>
-  </si>
-  <si>
-    <t>JL.biohazard</t>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>Gacoan</t>
+  </si>
+  <si>
+    <t>Tlogomas</t>
   </si>
 </sst>
 </file>
@@ -403,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E5FA43-F2B0-4878-8A73-AF2EE6D5DD5C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,21 +423,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
